--- a/wg_clash_ergebnisse.xlsx
+++ b/wg_clash_ergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a750d02d39ef92fa/Dokumente/Basteleien/clash/clash_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{63415C27-B57A-4285-92C9-4583B82F4580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{077737FF-65EE-454B-AB3A-3AE9A95E686C}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{63415C27-B57A-4285-92C9-4583B82F4580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{748D499D-B1D6-440E-9E49-0053C568EAD0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{FCF13440-2A8C-4F0F-B769-A09D3F5D4E6A}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,6 +658,24 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D6" s="1">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -668,6 +686,18 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">

--- a/wg_clash_ergebnisse.xlsx
+++ b/wg_clash_ergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a750d02d39ef92fa/Dokumente/Basteleien/clash/clash_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{63415C27-B57A-4285-92C9-4583B82F4580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{748D499D-B1D6-440E-9E49-0053C568EAD0}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{63415C27-B57A-4285-92C9-4583B82F4580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62A25E92-54CF-4B9D-A62B-C368B576C9C3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{FCF13440-2A8C-4F0F-B769-A09D3F5D4E6A}"/>
   </bookViews>
@@ -668,10 +668,10 @@
         <v>18</v>
       </c>
       <c r="G6" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>

--- a/wg_clash_ergebnisse.xlsx
+++ b/wg_clash_ergebnisse.xlsx
@@ -87,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,7 +97,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -105,6 +105,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -146,8 +152,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -648,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -677,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -687,14 +693,26 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="D8" s="4">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4">
+        <v>14</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -704,14 +722,26 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -728,7 +758,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -745,7 +775,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -762,7 +792,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -779,7 +809,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -796,7 +826,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>

--- a/wg_clash_ergebnisse.xlsx
+++ b/wg_clash_ergebnisse.xlsx
@@ -751,12 +751,24 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="D10" s="4">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4">
+        <v>14</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1" t="s">
@@ -768,12 +780,24 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1" t="s">

--- a/wg_clash_ergebnisse.xlsx
+++ b/wg_clash_ergebnisse.xlsx
@@ -87,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,12 +105,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -152,14 +146,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,12 +803,24 @@
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="D12" s="4">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4">
+        <v>14</v>
+      </c>
+      <c r="I12" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1" t="s">
@@ -826,12 +832,24 @@
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1" t="s">
@@ -843,12 +861,24 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="D14" s="4">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4">
+        <v>16</v>
+      </c>
+      <c r="I14" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="1" t="s">
@@ -860,12 +890,24 @@
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="D15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
